--- a/pharmacy_ARV-xls.xlsx
+++ b/pharmacy_ARV-xls.xlsx
@@ -517,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -605,11 +605,11 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
         <v>2003</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
       </c>
       <c r="C2">
         <v>346715</v>
@@ -694,11 +694,11 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
         <v>2003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
       <c r="C3">
         <v>346715</v>
@@ -783,11 +783,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
         <v>2003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
       </c>
       <c r="C4">
         <v>346715</v>
@@ -872,11 +872,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
         <v>2003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
       </c>
       <c r="C5">
         <v>346716</v>
@@ -961,11 +961,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <v>2003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
       </c>
       <c r="C6">
         <v>346716</v>
@@ -1050,11 +1050,11 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
         <v>2003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
       <c r="C7">
         <v>346716</v>
@@ -1139,11 +1139,11 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
         <v>2003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
       </c>
       <c r="C8">
         <v>346717</v>
@@ -1228,11 +1228,11 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
         <v>2003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
       </c>
       <c r="C9">
         <v>346717</v>
@@ -1317,11 +1317,11 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
         <v>2003</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
       </c>
       <c r="C10">
         <v>346717</v>
@@ -1406,11 +1406,11 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
         <v>2003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
       </c>
       <c r="C11">
         <v>346718</v>
@@ -1495,11 +1495,11 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
         <v>2003</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
       </c>
       <c r="C12">
         <v>346718</v>
@@ -1584,11 +1584,11 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
         <v>2003</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
       </c>
       <c r="C13">
         <v>346718</v>
@@ -1673,11 +1673,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
         <v>2003</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
       </c>
       <c r="C14">
         <v>346719</v>
@@ -1762,11 +1762,11 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
         <v>2003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
       </c>
       <c r="C15">
         <v>346719</v>
@@ -1851,11 +1851,11 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
         <v>2003</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
       <c r="C16">
         <v>346719</v>
@@ -1940,11 +1940,11 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
         <v>2003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
       </c>
       <c r="C17">
         <v>346720</v>
@@ -2029,11 +2029,11 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
         <v>2003</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
       </c>
       <c r="C18">
         <v>346720</v>
@@ -2118,11 +2118,11 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
         <v>2003</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
       </c>
       <c r="C19">
         <v>346720</v>
@@ -2207,11 +2207,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
         <v>2003</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
       <c r="C20">
         <v>346721</v>
@@ -2296,11 +2296,11 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
         <v>2003</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
       </c>
       <c r="C21">
         <v>346721</v>
@@ -2385,11 +2385,11 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
         <v>2003</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
       </c>
       <c r="C22">
         <v>346721</v>
@@ -2474,11 +2474,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
         <v>2003</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
       </c>
       <c r="C23">
         <v>346722</v>
@@ -2563,11 +2563,11 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
         <v>2003</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24">
         <v>346722</v>
@@ -2652,11 +2652,11 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
         <v>2003</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
       <c r="C25">
         <v>346722</v>
@@ -2741,11 +2741,11 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
         <v>7502</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
       <c r="C26">
         <v>346723</v>
@@ -2830,11 +2830,11 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
         <v>7502</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
       </c>
       <c r="C27">
         <v>346723</v>
@@ -2919,11 +2919,11 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
         <v>7502</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
       </c>
       <c r="C28">
         <v>346724</v>
@@ -3008,11 +3008,11 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
         <v>7502</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
       </c>
       <c r="C29">
         <v>346724</v>
@@ -3097,11 +3097,11 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
         <v>7502</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
       <c r="C30">
         <v>346725</v>
@@ -3186,11 +3186,11 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
         <v>7502</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
       </c>
       <c r="C31">
         <v>346725</v>
@@ -3275,11 +3275,11 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
         <v>7502</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
       </c>
       <c r="C32">
         <v>346726</v>
@@ -3364,11 +3364,11 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
         <v>7502</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
       </c>
       <c r="C33">
         <v>346726</v>
@@ -3453,11 +3453,11 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
         <v>5586</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
       </c>
       <c r="C34">
         <v>346727</v>
@@ -3542,11 +3542,11 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
         <v>5586</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
       </c>
       <c r="C35">
         <v>346727</v>
@@ -3631,11 +3631,11 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
         <v>5586</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
       </c>
       <c r="C36">
         <v>346727</v>
@@ -3720,11 +3720,11 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
         <v>5586</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
       </c>
       <c r="C37">
         <v>346728</v>
@@ -3809,11 +3809,11 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
         <v>5586</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
       </c>
       <c r="C38">
         <v>346728</v>
@@ -3898,11 +3898,11 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
         <v>5586</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
       </c>
       <c r="C39">
         <v>346728</v>
@@ -3987,11 +3987,11 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
         <v>5586</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
       </c>
       <c r="C40">
         <v>346729</v>
@@ -4076,11 +4076,11 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
         <v>5586</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
       </c>
       <c r="C41">
         <v>346729</v>
@@ -4165,11 +4165,11 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
         <v>5586</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
       </c>
       <c r="C42">
         <v>346729</v>
@@ -4254,11 +4254,11 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
         <v>5586</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
       </c>
       <c r="C43">
         <v>346730</v>
@@ -4343,11 +4343,11 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>5586</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
       </c>
       <c r="C44">
         <v>346730</v>
@@ -4432,11 +4432,11 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
         <v>5586</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
       </c>
       <c r="C45">
         <v>346730</v>
@@ -4521,11 +4521,11 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
         <v>5586</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
       </c>
       <c r="C46">
         <v>346731</v>
@@ -4610,11 +4610,11 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
         <v>5586</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
       </c>
       <c r="C47">
         <v>346731</v>
@@ -4699,11 +4699,11 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
         <v>5586</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
       </c>
       <c r="C48">
         <v>346731</v>
@@ -4788,11 +4788,11 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
         <v>2987</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
       </c>
       <c r="C49">
         <v>346732</v>
@@ -4877,11 +4877,11 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
         <v>2987</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
       </c>
       <c r="C50">
         <v>346732</v>
@@ -4966,11 +4966,11 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>2987</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
       </c>
       <c r="C51">
         <v>346732</v>
@@ -5055,11 +5055,11 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
         <v>2987</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
       </c>
       <c r="C52">
         <v>346733</v>
@@ -5144,11 +5144,11 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
         <v>2987</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
       </c>
       <c r="C53">
         <v>346733</v>
@@ -5233,11 +5233,11 @@
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>2987</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
       </c>
       <c r="C54">
         <v>346733</v>
@@ -5322,11 +5322,11 @@
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>2987</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
       </c>
       <c r="C55">
         <v>346734</v>
@@ -5411,11 +5411,11 @@
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
         <v>2987</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
       </c>
       <c r="C56">
         <v>346734</v>
@@ -5500,11 +5500,11 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
         <v>2987</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
       </c>
       <c r="C57">
         <v>346734</v>
@@ -5589,11 +5589,11 @@
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58">
         <v>2987</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
       </c>
       <c r="C58">
         <v>346735</v>
@@ -5678,11 +5678,11 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
         <v>2987</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
       </c>
       <c r="C59">
         <v>346735</v>
@@ -5767,11 +5767,11 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60">
         <v>2987</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
       </c>
       <c r="C60">
         <v>346735</v>
@@ -5856,11 +5856,11 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61">
         <v>2987</v>
-      </c>
-      <c r="B61" t="s">
-        <v>53</v>
       </c>
       <c r="C61">
         <v>346736</v>
@@ -5945,11 +5945,11 @@
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62">
         <v>2987</v>
-      </c>
-      <c r="B62" t="s">
-        <v>53</v>
       </c>
       <c r="C62">
         <v>346736</v>
@@ -6034,11 +6034,11 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63">
         <v>2987</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
       </c>
       <c r="C63">
         <v>346736</v>
@@ -6123,11 +6123,11 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64">
         <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
       </c>
       <c r="C64">
         <v>346737</v>
@@ -6212,11 +6212,11 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65">
         <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>54</v>
       </c>
       <c r="C65">
         <v>346737</v>
@@ -6301,11 +6301,11 @@
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66">
         <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
       </c>
       <c r="C66">
         <v>346737</v>
@@ -6390,11 +6390,11 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67">
         <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>54</v>
       </c>
       <c r="C67">
         <v>346737</v>
@@ -6479,11 +6479,11 @@
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68">
         <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>54</v>
       </c>
       <c r="C68">
         <v>346738</v>
@@ -6568,11 +6568,11 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69">
         <v>60</v>
-      </c>
-      <c r="B69" t="s">
-        <v>54</v>
       </c>
       <c r="C69">
         <v>346738</v>
@@ -6657,11 +6657,11 @@
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70">
         <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>54</v>
       </c>
       <c r="C70">
         <v>346738</v>
@@ -6746,11 +6746,11 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71">
         <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>54</v>
       </c>
       <c r="C71">
         <v>346738</v>
@@ -6835,11 +6835,11 @@
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72">
         <v>60</v>
-      </c>
-      <c r="B72" t="s">
-        <v>54</v>
       </c>
       <c r="C72">
         <v>346739</v>
@@ -6924,11 +6924,11 @@
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73">
         <v>60</v>
-      </c>
-      <c r="B73" t="s">
-        <v>54</v>
       </c>
       <c r="C73">
         <v>346739</v>
@@ -7013,11 +7013,11 @@
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74">
         <v>60</v>
-      </c>
-      <c r="B74" t="s">
-        <v>54</v>
       </c>
       <c r="C74">
         <v>346739</v>
@@ -7102,11 +7102,11 @@
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75">
         <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>54</v>
       </c>
       <c r="C75">
         <v>346739</v>
@@ -7191,11 +7191,11 @@
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76">
         <v>60</v>
-      </c>
-      <c r="B76" t="s">
-        <v>54</v>
       </c>
       <c r="C76">
         <v>346740</v>
@@ -7280,11 +7280,11 @@
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77">
         <v>60</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
       </c>
       <c r="C77">
         <v>346740</v>
@@ -7369,11 +7369,11 @@
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78">
         <v>60</v>
-      </c>
-      <c r="B78" t="s">
-        <v>54</v>
       </c>
       <c r="C78">
         <v>346740</v>
@@ -7458,11 +7458,11 @@
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79">
         <v>60</v>
-      </c>
-      <c r="B79" t="s">
-        <v>54</v>
       </c>
       <c r="C79">
         <v>346740</v>
@@ -7547,11 +7547,11 @@
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80">
         <v>60</v>
-      </c>
-      <c r="B80" t="s">
-        <v>54</v>
       </c>
       <c r="C80">
         <v>346741</v>
@@ -7636,11 +7636,11 @@
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
         <v>60</v>
-      </c>
-      <c r="B81" t="s">
-        <v>54</v>
       </c>
       <c r="C81">
         <v>346741</v>
@@ -7725,11 +7725,11 @@
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82">
         <v>60</v>
-      </c>
-      <c r="B82" t="s">
-        <v>54</v>
       </c>
       <c r="C82">
         <v>346741</v>
@@ -7814,11 +7814,11 @@
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83">
         <v>60</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
       </c>
       <c r="C83">
         <v>346741</v>
@@ -7903,11 +7903,11 @@
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84">
         <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>54</v>
       </c>
       <c r="C84">
         <v>346741</v>
@@ -7992,11 +7992,11 @@
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85">
         <v>60</v>
-      </c>
-      <c r="B85" t="s">
-        <v>54</v>
       </c>
       <c r="C85">
         <v>346742</v>
@@ -8081,11 +8081,11 @@
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86">
         <v>60</v>
-      </c>
-      <c r="B86" t="s">
-        <v>54</v>
       </c>
       <c r="C86">
         <v>346742</v>
@@ -8170,11 +8170,11 @@
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87">
         <v>60</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
       </c>
       <c r="C87">
         <v>346742</v>
@@ -8259,11 +8259,11 @@
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88">
         <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>54</v>
       </c>
       <c r="C88">
         <v>346742</v>
@@ -8348,11 +8348,11 @@
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89">
         <v>60</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
       </c>
       <c r="C89">
         <v>346742</v>
@@ -8437,11 +8437,11 @@
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90">
         <v>60</v>
-      </c>
-      <c r="B90" t="s">
-        <v>54</v>
       </c>
       <c r="C90">
         <v>346743</v>
@@ -8526,11 +8526,11 @@
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91">
         <v>60</v>
-      </c>
-      <c r="B91" t="s">
-        <v>54</v>
       </c>
       <c r="C91">
         <v>346743</v>
@@ -8615,11 +8615,11 @@
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92">
         <v>60</v>
-      </c>
-      <c r="B92" t="s">
-        <v>54</v>
       </c>
       <c r="C92">
         <v>346743</v>
@@ -8704,11 +8704,11 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93">
         <v>60</v>
-      </c>
-      <c r="B93" t="s">
-        <v>54</v>
       </c>
       <c r="C93">
         <v>346743</v>
@@ -8793,11 +8793,11 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94">
         <v>60</v>
-      </c>
-      <c r="B94" t="s">
-        <v>54</v>
       </c>
       <c r="C94">
         <v>346743</v>
@@ -8882,11 +8882,11 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95">
         <v>60</v>
-      </c>
-      <c r="B95" t="s">
-        <v>54</v>
       </c>
       <c r="C95">
         <v>346744</v>
@@ -8971,11 +8971,11 @@
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96">
         <v>60</v>
-      </c>
-      <c r="B96" t="s">
-        <v>54</v>
       </c>
       <c r="C96">
         <v>346744</v>
@@ -9060,11 +9060,11 @@
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97">
         <v>60</v>
-      </c>
-      <c r="B97" t="s">
-        <v>54</v>
       </c>
       <c r="C97">
         <v>346744</v>
@@ -9149,11 +9149,11 @@
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98">
         <v>60</v>
-      </c>
-      <c r="B98" t="s">
-        <v>54</v>
       </c>
       <c r="C98">
         <v>346744</v>
@@ -9238,11 +9238,11 @@
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99">
         <v>60</v>
-      </c>
-      <c r="B99" t="s">
-        <v>54</v>
       </c>
       <c r="C99">
         <v>346744</v>
@@ -9327,11 +9327,11 @@
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100">
         <v>60</v>
-      </c>
-      <c r="B100" t="s">
-        <v>54</v>
       </c>
       <c r="C100">
         <v>346745</v>
@@ -9416,11 +9416,11 @@
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101">
         <v>60</v>
-      </c>
-      <c r="B101" t="s">
-        <v>54</v>
       </c>
       <c r="C101">
         <v>346745</v>
